--- a/key_value_storage/measurements/results/augmented-btrees.xlsx
+++ b/key_value_storage/measurements/results/augmented-btrees.xlsx
@@ -67,190 +67,190 @@
     <t>Δ Allocated memory</t>
   </si>
   <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>6808</t>
-  </si>
-  <si>
-    <t>66984</t>
-  </si>
-  <si>
-    <t>675824</t>
-  </si>
-  <si>
-    <t>6764696</t>
-  </si>
-  <si>
-    <t>67660168</t>
+    <t>48</t>
+  </si>
+  <si>
+    <t>480</t>
+  </si>
+  <si>
+    <t>6472</t>
+  </si>
+  <si>
+    <t>66936</t>
+  </si>
+  <si>
+    <t>675776</t>
+  </si>
+  <si>
+    <t>6764648</t>
+  </si>
+  <si>
+    <t>67660120</t>
   </si>
   <si>
     <t>Δ Reclaimed memory</t>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>352</t>
-  </si>
-  <si>
-    <t>3752</t>
-  </si>
-  <si>
-    <t>37068</t>
-  </si>
-  <si>
-    <t>374088</t>
-  </si>
-  <si>
-    <t>3746080</t>
-  </si>
-  <si>
-    <t>37469472</t>
+    <t>32</t>
+  </si>
+  <si>
+    <t>320</t>
+  </si>
+  <si>
+    <t>3652</t>
+  </si>
+  <si>
+    <t>37036</t>
+  </si>
+  <si>
+    <t>374056</t>
+  </si>
+  <si>
+    <t>3746048</t>
+  </si>
+  <si>
+    <t>37469440</t>
   </si>
   <si>
     <t>Δ Heap memory</t>
   </si>
   <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>3056</t>
-  </si>
-  <si>
-    <t>29916</t>
-  </si>
-  <si>
-    <t>301736</t>
-  </si>
-  <si>
-    <t>3018616</t>
-  </si>
-  <si>
-    <t>30190696</t>
+    <t>16</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>2820</t>
+  </si>
+  <si>
+    <t>29900</t>
+  </si>
+  <si>
+    <t>301720</t>
+  </si>
+  <si>
+    <t>3018600</t>
+  </si>
+  <si>
+    <t>30190680</t>
   </si>
   <si>
     <t>Δ Instructions</t>
   </si>
   <si>
-    <t>1886</t>
-  </si>
-  <si>
-    <t>17759</t>
-  </si>
-  <si>
-    <t>337932</t>
-  </si>
-  <si>
-    <t>4750985</t>
-  </si>
-  <si>
-    <t>60550604</t>
-  </si>
-  <si>
-    <t>748627134</t>
-  </si>
-  <si>
-    <t>8891324784</t>
+    <t>800</t>
+  </si>
+  <si>
+    <t>15710</t>
+  </si>
+  <si>
+    <t>325444</t>
+  </si>
+  <si>
+    <t>4746054</t>
+  </si>
+  <si>
+    <t>60544259</t>
+  </si>
+  <si>
+    <t>748619721</t>
+  </si>
+  <si>
+    <t>8891316224</t>
   </si>
   <si>
     <t>Δ GC instructions</t>
   </si>
   <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>4070</t>
-  </si>
-  <si>
-    <t>59058</t>
-  </si>
-  <si>
-    <t>584851</t>
-  </si>
-  <si>
-    <t>5887984</t>
-  </si>
-  <si>
-    <t>58903128</t>
-  </si>
-  <si>
-    <t>589096472</t>
+    <t>370</t>
+  </si>
+  <si>
+    <t>3700</t>
+  </si>
+  <si>
+    <t>55251</t>
+  </si>
+  <si>
+    <t>584481</t>
+  </si>
+  <si>
+    <t>5887614</t>
+  </si>
+  <si>
+    <t>58902758</t>
+  </si>
+  <si>
+    <t>589096102</t>
   </si>
   <si>
     <t>Δ Mutator instructions</t>
   </si>
   <si>
-    <t>8069</t>
-  </si>
-  <si>
-    <t>25004</t>
-  </si>
-  <si>
-    <t>355797</t>
-  </si>
-  <si>
-    <t>4875071</t>
-  </si>
-  <si>
-    <t>61736690</t>
-  </si>
-  <si>
-    <t>760433241</t>
-  </si>
-  <si>
-    <t>9009330923</t>
+    <t>6906</t>
+  </si>
+  <si>
+    <t>22878</t>
+  </si>
+  <si>
+    <t>343232</t>
+  </si>
+  <si>
+    <t>4870063</t>
+  </si>
+  <si>
+    <t>61730268</t>
+  </si>
+  <si>
+    <t>760425751</t>
+  </si>
+  <si>
+    <t>9009322286</t>
   </si>
   <si>
     <t>51642368</t>
   </si>
   <si>
-    <t>1616</t>
-  </si>
-  <si>
-    <t>16016</t>
-  </si>
-  <si>
-    <t>160016</t>
-  </si>
-  <si>
-    <t>1600016</t>
-  </si>
-  <si>
-    <t>16000040</t>
-  </si>
-  <si>
-    <t>160000040</t>
-  </si>
-  <si>
-    <t>1697</t>
-  </si>
-  <si>
-    <t>14426</t>
-  </si>
-  <si>
-    <t>250443</t>
-  </si>
-  <si>
-    <t>3675878</t>
-  </si>
-  <si>
-    <t>48104484</t>
-  </si>
-  <si>
-    <t>581736636</t>
-  </si>
-  <si>
-    <t>7055899427</t>
-  </si>
-  <si>
-    <t>2880441676</t>
+    <t>1600</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>1600000</t>
+  </si>
+  <si>
+    <t>16000024</t>
+  </si>
+  <si>
+    <t>160000024</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>12837</t>
+  </si>
+  <si>
+    <t>250012</t>
+  </si>
+  <si>
+    <t>3671192</t>
+  </si>
+  <si>
+    <t>48098935</t>
+  </si>
+  <si>
+    <t>581729960</t>
+  </si>
+  <si>
+    <t>7055891775</t>
+  </si>
+  <si>
+    <t>2880441388</t>
   </si>
   <si>
     <t>-368</t>
@@ -265,28 +265,28 @@
     <t>-169648</t>
   </si>
   <si>
-    <t>7880</t>
-  </si>
-  <si>
-    <t>21671</t>
-  </si>
-  <si>
-    <t>268308</t>
-  </si>
-  <si>
-    <t>3799964</t>
-  </si>
-  <si>
-    <t>49290570</t>
-  </si>
-  <si>
-    <t>593542743</t>
-  </si>
-  <si>
-    <t>7173905566</t>
-  </si>
-  <si>
-    <t>4060447836</t>
+    <t>6738</t>
+  </si>
+  <si>
+    <t>20005</t>
+  </si>
+  <si>
+    <t>267800</t>
+  </si>
+  <si>
+    <t>3795201</t>
+  </si>
+  <si>
+    <t>49284944</t>
+  </si>
+  <si>
+    <t>593535990</t>
+  </si>
+  <si>
+    <t>7173897837</t>
+  </si>
+  <si>
+    <t>4060447471</t>
   </si>
   <si>
     <t>131072</t>
@@ -298,40 +298,40 @@
     <t>10485760</t>
   </si>
   <si>
-    <t>4848</t>
-  </si>
-  <si>
-    <t>48048</t>
-  </si>
-  <si>
-    <t>480048</t>
-  </si>
-  <si>
-    <t>4800048</t>
-  </si>
-  <si>
-    <t>48000072</t>
-  </si>
-  <si>
-    <t>2073</t>
-  </si>
-  <si>
-    <t>16494</t>
-  </si>
-  <si>
-    <t>299630</t>
-  </si>
-  <si>
-    <t>4462726</t>
-  </si>
-  <si>
-    <t>58955817</t>
-  </si>
-  <si>
-    <t>690240759</t>
-  </si>
-  <si>
-    <t>8439931129</t>
+    <t>4800</t>
+  </si>
+  <si>
+    <t>48000</t>
+  </si>
+  <si>
+    <t>480000</t>
+  </si>
+  <si>
+    <t>4800000</t>
+  </si>
+  <si>
+    <t>48000024</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>14717</t>
+  </si>
+  <si>
+    <t>298712</t>
+  </si>
+  <si>
+    <t>4457254</t>
+  </si>
+  <si>
+    <t>58949183</t>
+  </si>
+  <si>
+    <t>690232998</t>
+  </si>
+  <si>
+    <t>8439922093</t>
   </si>
   <si>
     <t>736</t>
@@ -343,145 +343,145 @@
     <t>58880</t>
   </si>
   <si>
-    <t>8256</t>
-  </si>
-  <si>
-    <t>23739</t>
-  </si>
-  <si>
-    <t>317495</t>
-  </si>
-  <si>
-    <t>4586812</t>
-  </si>
-  <si>
-    <t>60141903</t>
-  </si>
-  <si>
-    <t>702046866</t>
-  </si>
-  <si>
-    <t>8557937268</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>21516</t>
-  </si>
-  <si>
-    <t>214884</t>
-  </si>
-  <si>
-    <t>2149796</t>
-  </si>
-  <si>
-    <t>21499820</t>
-  </si>
-  <si>
-    <t>5068</t>
-  </si>
-  <si>
-    <t>51432</t>
-  </si>
-  <si>
-    <t>516620</t>
-  </si>
-  <si>
-    <t>5168412</t>
-  </si>
-  <si>
-    <t>51690516</t>
-  </si>
-  <si>
-    <t>-32</t>
-  </si>
-  <si>
-    <t>-176</t>
-  </si>
-  <si>
-    <t>-3056</t>
-  </si>
-  <si>
-    <t>-29916</t>
-  </si>
-  <si>
-    <t>-301736</t>
-  </si>
-  <si>
-    <t>-3018616</t>
-  </si>
-  <si>
-    <t>-30190696</t>
-  </si>
-  <si>
-    <t>2530</t>
-  </si>
-  <si>
-    <t>28901</t>
-  </si>
-  <si>
-    <t>756942</t>
-  </si>
-  <si>
-    <t>9955059</t>
-  </si>
-  <si>
-    <t>115261915</t>
-  </si>
-  <si>
-    <t>1306255125</t>
-  </si>
-  <si>
-    <t>14575274299</t>
-  </si>
-  <si>
-    <t>3360151740</t>
-  </si>
-  <si>
-    <t>-740</t>
-  </si>
-  <si>
-    <t>-4070</t>
-  </si>
-  <si>
-    <t>-59058</t>
-  </si>
-  <si>
-    <t>-584483</t>
-  </si>
-  <si>
-    <t>-5887248</t>
-  </si>
-  <si>
-    <t>-58892088</t>
-  </si>
-  <si>
-    <t>-588985704</t>
-  </si>
-  <si>
-    <t>8713</t>
-  </si>
-  <si>
-    <t>36146</t>
-  </si>
-  <si>
-    <t>774807</t>
-  </si>
-  <si>
-    <t>10079145</t>
-  </si>
-  <si>
-    <t>116448001</t>
-  </si>
-  <si>
-    <t>1318061232</t>
-  </si>
-  <si>
-    <t>14693280438</t>
-  </si>
-  <si>
-    <t>4540157900</t>
+    <t>6926</t>
+  </si>
+  <si>
+    <t>21885</t>
+  </si>
+  <si>
+    <t>316500</t>
+  </si>
+  <si>
+    <t>4581263</t>
+  </si>
+  <si>
+    <t>60135192</t>
+  </si>
+  <si>
+    <t>702039028</t>
+  </si>
+  <si>
+    <t>8557928155</t>
+  </si>
+  <si>
+    <t>2128</t>
+  </si>
+  <si>
+    <t>21456</t>
+  </si>
+  <si>
+    <t>214868</t>
+  </si>
+  <si>
+    <t>2149736</t>
+  </si>
+  <si>
+    <t>21499804</t>
+  </si>
+  <si>
+    <t>4948</t>
+  </si>
+  <si>
+    <t>51356</t>
+  </si>
+  <si>
+    <t>516588</t>
+  </si>
+  <si>
+    <t>5168336</t>
+  </si>
+  <si>
+    <t>51690484</t>
+  </si>
+  <si>
+    <t>-16</t>
+  </si>
+  <si>
+    <t>-160</t>
+  </si>
+  <si>
+    <t>-2820</t>
+  </si>
+  <si>
+    <t>-29900</t>
+  </si>
+  <si>
+    <t>-301720</t>
+  </si>
+  <si>
+    <t>-3018600</t>
+  </si>
+  <si>
+    <t>-30190680</t>
+  </si>
+  <si>
+    <t>1113</t>
+  </si>
+  <si>
+    <t>24970</t>
+  </si>
+  <si>
+    <t>744248</t>
+  </si>
+  <si>
+    <t>9942971</t>
+  </si>
+  <si>
+    <t>115255065</t>
+  </si>
+  <si>
+    <t>1306243176</t>
+  </si>
+  <si>
+    <t>14575267874</t>
+  </si>
+  <si>
+    <t>3360151404</t>
+  </si>
+  <si>
+    <t>-370</t>
+  </si>
+  <si>
+    <t>-3700</t>
+  </si>
+  <si>
+    <t>-55251</t>
+  </si>
+  <si>
+    <t>-584113</t>
+  </si>
+  <si>
+    <t>-5886878</t>
+  </si>
+  <si>
+    <t>-58891718</t>
+  </si>
+  <si>
+    <t>-588985334</t>
+  </si>
+  <si>
+    <t>7219</t>
+  </si>
+  <si>
+    <t>32138</t>
+  </si>
+  <si>
+    <t>762036</t>
+  </si>
+  <si>
+    <t>10066980</t>
+  </si>
+  <si>
+    <t>116441074</t>
+  </si>
+  <si>
+    <t>1318049206</t>
+  </si>
+  <si>
+    <t>14693273936</t>
+  </si>
+  <si>
+    <t>4540157487</t>
   </si>
 </sst>
 </file>
